--- a/data/dataprogrampelatihan.xlsx
+++ b/data/dataprogrampelatihan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1. Tesis Muhammad Adenin Baru Final Sidang\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F6AF5-7773-4922-B1BF-3AB4AEBA2576}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0943B39-DB2D-4C21-96EC-2298C511607E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="programpelatihan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>NO</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">  -  IT Software Solution for Business </t>
   </si>
   <si>
-    <t>Setelah mengikuti pelatihan ini peserta kompetenmenganalisis,membuat dan mengimplementasikan pemograman untuk solusi business yang dibutuhkan oleh perusahaan berdasarkan SOP yang telah ditentukan.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  -  Desainer Grafis Muda </t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">  -  Fotografer Junior</t>
-  </si>
-  <si>
-    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam melaksanakan pemotretan dengan tugas sederhana, terbatas, bersifat rutin, dengan menggunakan alat, aturan, sesuai  proses yang telah ditetapkan.</t>
   </si>
   <si>
     <t xml:space="preserve">  -  Pemasangan Jaringan Komputer </t>
@@ -97,13 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">  -  Pengoperasian Industrial Manufacturing System </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setelah mengikuti pelatihan ini peserta
-kompeten dalam mengoperasikan peralatan
-berbasis PLC, Pneumatik dan robotik di dalam
-dunia Industri.
-</t>
   </si>
   <si>
     <t xml:space="preserve">  -  Teknisi Telepon Seluler  Perangkat Lunak</t>
@@ -236,6 +223,33 @@
   </si>
   <si>
     <t>Setelah mengikuti pelatihan ini peserta kompeten dalam melakukan pekerjaan sebagai Welding Inspektor Standar sesuai SKKNI Bidang Pengelasan.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten menganalisis, membuat dan mengimplementasikan pemograman untuk solusi business yang dibutuhkan oleh perusahaan berdasarkan SOP yang telah ditentukan.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam melaksanakan pemotretan dengan tugas sederhana, terbatas, bersifat rutin, dengan menggunakan alat, aturan, sesuai proses yang telah ditetapkan.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam mengoperasikan peralatan berbasis PLC, Pneumatik dan robotik di dalam dunia Industri.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam melakukan pemeliharaan, instalasi, dan perbaikan perangkat lunak pada telepon seluler sesuai dengan standar dan prosedur yang berlaku.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam merancang, memprogram, dan mengimplementasikan sistem embedded berbasis Internet of Things (IoT) sesuai dengan kebutuhan dan standar industri.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam menyiapkan, meracik, dan menyajikan berbagai jenis minuman kopi serta memberikan pelayanan yang baik kepada pelanggan sesuai dengan standar dan prosedur yang berlaku.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam menerapkan teknik dasar masak, menyiapkan bahan, mengolah, dan menyajikan hidangan komersial sesuai dengan standar higiene, sanitasi, dan prosedur operasional dapur komersial.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam membersihkan, merapikan, dan mempersiapkan kamar tamu serta area-area lain di akomodasi pariwisata sesuai dengan standar kebersihan, kerapian, dan prosedur pelayanan yang ditetapkan.</t>
+  </si>
+  <si>
+    <t>Setelah mengikuti pelatihan ini peserta kompeten dalam membuat, mengolah, dan menyajikan berbagai macam produk bakery (roti, kue, pastry) dengan menerapkan teknik dan prosedur yang benar sesuai standar higiene dan kualitas.</t>
   </si>
 </sst>
 </file>
@@ -623,19 +637,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="92.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
@@ -664,7 +678,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="108.5">
+    <row r="2" spans="1:12" ht="110.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -689,7 +703,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="46.5">
+    <row r="3" spans="1:12" ht="47.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -714,7 +728,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="46.5">
+    <row r="4" spans="1:12" ht="47.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -731,7 +745,7 @@
         <v>340</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -739,7 +753,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="46.5">
+    <row r="5" spans="1:12" ht="47.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -750,13 +764,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9">
         <v>260</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -764,7 +778,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="46.5">
+    <row r="6" spans="1:12" ht="47.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -775,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="9">
         <v>280</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -790,7 +804,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="46.5">
+    <row r="7" spans="1:12" ht="47.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -801,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9">
         <v>260</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -816,7 +830,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="31">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -827,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9">
         <v>260</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -842,7 +856,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="31">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -853,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9">
         <v>260</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -868,7 +882,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="46.5">
+    <row r="10" spans="1:12" ht="47.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -894,24 +908,24 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="77.5">
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9">
         <v>360</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -920,23 +934,25 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="15.5">
+    <row r="12" spans="1:12" ht="31.5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="9">
         <v>260</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -944,24 +960,24 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="62">
+    <row r="13" spans="1:12" ht="63">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9">
         <v>260</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -970,24 +986,24 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="46.5">
+    <row r="14" spans="1:12" ht="47.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9">
         <v>960</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -996,24 +1012,24 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="31">
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9">
         <v>260</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1022,24 +1038,24 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="15.5">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6">
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="9">
         <v>260</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1048,23 +1064,25 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="15.5">
+    <row r="17" spans="1:26" ht="47.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" s="9">
         <v>380</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1072,24 +1090,24 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:26" ht="15.5">
+    <row r="18" spans="1:26" ht="15.75">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6">
         <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="16">
         <v>260</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1098,24 +1116,24 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:26" ht="46.5">
+    <row r="19" spans="1:26" ht="47.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6">
         <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="17">
         <v>360</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -1124,23 +1142,25 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:26" ht="15.5">
+    <row r="20" spans="1:26" ht="31.5">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6">
         <v>19</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="16">
         <v>260</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1148,24 +1168,24 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="46.5">
+    <row r="21" spans="1:26" ht="47.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6">
         <v>20</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="16">
         <v>360</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1174,24 +1194,24 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:26" ht="46.5">
+    <row r="22" spans="1:26" ht="47.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="6">
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="16">
         <v>1200</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1200,24 +1220,24 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="31">
+    <row r="23" spans="1:26" ht="31.5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="9">
         <v>260</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1226,24 +1246,24 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:26" s="26" customFormat="1" ht="31">
+    <row r="24" spans="1:26" s="26" customFormat="1" ht="31.5">
       <c r="A24" s="22">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6">
         <v>23</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="28">
         <v>340</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -1266,24 +1286,24 @@
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
     </row>
-    <row r="25" spans="1:26" ht="31">
+    <row r="25" spans="1:26" ht="31.5">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6">
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="9">
         <v>320</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -1292,24 +1312,24 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:26" ht="31">
+    <row r="26" spans="1:26" ht="31.5">
       <c r="A26" s="6">
         <v>27</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="6">
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" s="9">
         <v>180</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -1318,23 +1338,25 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:26" ht="15.5">
+    <row r="27" spans="1:26" ht="47.25">
       <c r="A27" s="6">
         <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6">
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="9">
         <v>180</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1342,24 +1364,24 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:26" ht="46.5">
+    <row r="28" spans="1:26" ht="47.25">
       <c r="A28" s="6">
         <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="6">
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E28" s="9">
         <v>180</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1368,23 +1390,25 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="15.5">
+    <row r="29" spans="1:26" ht="47.25">
       <c r="A29" s="6">
         <v>30</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6">
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="9">
         <v>180</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1392,23 +1416,25 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:26" ht="15.5">
+    <row r="30" spans="1:26" ht="47.25">
       <c r="A30" s="6">
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="6">
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30" s="9">
         <v>220</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1416,23 +1442,25 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:26" ht="15.5">
+    <row r="31" spans="1:26" ht="47.25">
       <c r="A31" s="6">
         <v>32</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="6">
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" s="9">
         <v>180</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1440,24 +1468,24 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:26" ht="31">
+    <row r="32" spans="1:26" ht="31.5">
       <c r="A32" s="6">
         <v>33</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6">
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="9">
         <v>340</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1466,24 +1494,24 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" ht="31">
+    <row r="33" spans="1:12" ht="31.5">
       <c r="A33" s="6">
         <v>34</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6">
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="9">
         <v>180</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -1492,24 +1520,24 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="46.5">
+    <row r="34" spans="1:12" ht="47.25">
       <c r="A34" s="6">
         <v>35</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6">
         <v>33</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="16">
         <v>340</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -1518,24 +1546,24 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="31">
+    <row r="35" spans="1:12" ht="31.5">
       <c r="A35" s="6">
         <v>36</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" s="6">
         <v>34</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="16">
         <v>180</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>

--- a/data/dataprogrampelatihan.xlsx
+++ b/data/dataprogrampelatihan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0943B39-DB2D-4C21-96EC-2298C511607E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEA1F8A-2E66-4FCD-984B-229F3EC14969}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1237,7 +1237,7 @@
         <v>260</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1263,7 +1263,7 @@
         <v>340</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
